--- a/DOCS/testsDonneespresentation.xlsx
+++ b/DOCS/testsDonneespresentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="donnees" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="401">
   <si>
     <t>Entités</t>
   </si>
@@ -591,15 +591,6 @@
     <t>Effectuer la maintenance améliorative courante des aménagements intérieurs d’un bâtiment</t>
   </si>
   <si>
-    <t>Effectuer la maintenance améliorative courante des revêtements intérieurs d’un bâtiment</t>
-  </si>
-  <si>
-    <t>Effectuer la maintenance préventive courante des menuiseries et fermetures d’un bâtiment</t>
-  </si>
-  <si>
-    <t>Effectuer la maintenance corrective courante des aménagements intérieurs d’un bâtiment</t>
-  </si>
-  <si>
     <t>Assurer la maintenance courante des aménagements intérieurs d’un bâtiment</t>
   </si>
   <si>
@@ -1206,25 +1197,28 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
-    <t>2.1.2</t>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>Effectuer la maintenance améliorative courante d’une installation électrique monophasée d’un bâtiment</t>
+  </si>
+  <si>
+    <t>Effectuer la maintenance améliorative courante de l’installation sanitaire d’un bâtiment</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.3.3</t>
   </si>
 </sst>
 </file>
@@ -2026,6 +2020,129 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2071,18 +2188,12 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2156,123 +2267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2304,6 +2298,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>910004</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9039225" y="27765376"/>
+          <a:ext cx="338504" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>687495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="27031950"/>
+          <a:ext cx="638175" cy="630345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>726758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="28498800"/>
+          <a:ext cx="542925" cy="660083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1282001</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8753475" y="29260800"/>
+          <a:ext cx="996251" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2593,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2807,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="188" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2646,7 +2821,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="207"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="52" t="s">
         <v>101</v>
       </c>
@@ -2658,7 +2833,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="52" t="s">
         <v>102</v>
       </c>
@@ -2670,7 +2845,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
@@ -2682,7 +2857,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="207"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="52" t="s">
         <v>104</v>
       </c>
@@ -2694,7 +2869,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="208"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="51" t="s">
         <v>105</v>
       </c>
@@ -2707,7 +2882,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="191" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -2721,7 +2896,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="209"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="57" t="s">
         <v>106</v>
       </c>
@@ -2734,7 +2909,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="193" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -2748,7 +2923,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -2761,7 +2936,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="195" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -2775,7 +2950,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="65" t="s">
         <v>108</v>
       </c>
@@ -2787,7 +2962,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="213"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="65" t="s">
         <v>109</v>
       </c>
@@ -2799,7 +2974,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="214"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="67" t="s">
         <v>110</v>
       </c>
@@ -2812,7 +2987,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="198" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="69" t="s">
@@ -2826,7 +3001,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="71" t="s">
         <v>111</v>
       </c>
@@ -2838,7 +3013,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="71" t="s">
         <v>112</v>
       </c>
@@ -2850,7 +3025,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="217"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="73" t="s">
         <v>113</v>
       </c>
@@ -2863,7 +3038,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="213" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -2877,7 +3052,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="77" t="s">
         <v>114</v>
       </c>
@@ -2889,7 +3064,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="77" t="s">
         <v>115</v>
       </c>
@@ -2901,7 +3076,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="77" t="s">
         <v>116</v>
       </c>
@@ -2913,7 +3088,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
@@ -2925,7 +3100,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="79" t="s">
         <v>31</v>
       </c>
@@ -2938,7 +3113,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="224" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="81" t="s">
@@ -2952,7 +3127,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
+      <c r="A34" s="225"/>
       <c r="B34" s="83" t="s">
         <v>117</v>
       </c>
@@ -2965,7 +3140,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="226" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -2979,7 +3154,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="188"/>
+      <c r="A37" s="227"/>
       <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
@@ -2992,7 +3167,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="228" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="89" t="s">
@@ -3006,7 +3181,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
+      <c r="A40" s="229"/>
       <c r="B40" s="91" t="s">
         <v>119</v>
       </c>
@@ -3018,7 +3193,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="190"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="91" t="s">
         <v>120</v>
       </c>
@@ -3030,7 +3205,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
+      <c r="A42" s="230"/>
       <c r="B42" s="93" t="s">
         <v>121</v>
       </c>
@@ -3043,7 +3218,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="231" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="95" t="s">
@@ -3057,7 +3232,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="193"/>
+      <c r="A45" s="232"/>
       <c r="B45" s="97" t="s">
         <v>122</v>
       </c>
@@ -3069,7 +3244,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="194"/>
+      <c r="A46" s="233"/>
       <c r="B46" s="99" t="s">
         <v>123</v>
       </c>
@@ -3082,7 +3257,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="234" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="101" t="s">
@@ -3096,7 +3271,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
+      <c r="A49" s="235"/>
       <c r="B49" s="103" t="s">
         <v>124</v>
       </c>
@@ -3108,7 +3283,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="197"/>
+      <c r="A50" s="236"/>
       <c r="B50" s="105" t="s">
         <v>125</v>
       </c>
@@ -3121,7 +3296,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="198" t="s">
+      <c r="A52" s="237" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="55" t="s">
@@ -3135,7 +3310,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
+      <c r="A53" s="238"/>
       <c r="B53" s="107" t="s">
         <v>126</v>
       </c>
@@ -3147,7 +3322,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200"/>
+      <c r="A54" s="239"/>
       <c r="B54" s="57" t="s">
         <v>127</v>
       </c>
@@ -3160,7 +3335,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="201" t="s">
+      <c r="A56" s="240" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3174,7 +3349,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="202"/>
+      <c r="A57" s="241"/>
       <c r="B57" s="111" t="s">
         <v>128</v>
       </c>
@@ -3186,7 +3361,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="203"/>
+      <c r="A58" s="242"/>
       <c r="B58" s="111" t="s">
         <v>129</v>
       </c>
@@ -3199,7 +3374,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="185" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="114" t="s">
@@ -3213,7 +3388,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="205"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="116" t="s">
         <v>130</v>
       </c>
@@ -3225,7 +3400,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="206"/>
+      <c r="A62" s="187"/>
       <c r="B62" s="118" t="s">
         <v>131</v>
       </c>
@@ -3238,7 +3413,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="221" t="s">
+      <c r="A64" s="163" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="120" t="s">
@@ -3252,7 +3427,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="222"/>
+      <c r="A65" s="164"/>
       <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
@@ -3264,7 +3439,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="223"/>
+      <c r="A66" s="165"/>
       <c r="B66" s="124" t="s">
         <v>133</v>
       </c>
@@ -3277,7 +3452,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="224" t="s">
+      <c r="A68" s="166" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="126" t="s">
@@ -3291,7 +3466,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="225"/>
+      <c r="A69" s="167"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -3303,7 +3478,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="226"/>
+      <c r="A70" s="168"/>
       <c r="B70" s="130" t="s">
         <v>135</v>
       </c>
@@ -3316,7 +3491,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="182" t="s">
+      <c r="A72" s="221" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="132" t="s">
@@ -3330,7 +3505,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
+      <c r="A73" s="222"/>
       <c r="B73" s="134" t="s">
         <v>136</v>
       </c>
@@ -3342,7 +3517,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
+      <c r="A74" s="222"/>
       <c r="B74" s="134" t="s">
         <v>137</v>
       </c>
@@ -3354,7 +3529,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="183"/>
+      <c r="A75" s="222"/>
       <c r="B75" s="134" t="s">
         <v>138</v>
       </c>
@@ -3366,7 +3541,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="183"/>
+      <c r="A76" s="222"/>
       <c r="B76" s="134" t="s">
         <v>139</v>
       </c>
@@ -3378,7 +3553,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="183"/>
+      <c r="A77" s="222"/>
       <c r="B77" s="134" t="s">
         <v>140</v>
       </c>
@@ -3390,7 +3565,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="184"/>
+      <c r="A78" s="223"/>
       <c r="B78" s="136" t="s">
         <v>71</v>
       </c>
@@ -3403,14 +3578,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="175" t="s">
+      <c r="B80" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="177"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="216"/>
+      <c r="E80" s="216"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="217"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="50" t="s">
@@ -3432,7 +3607,7 @@
         <v>105</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3599,10 +3774,10 @@
     </row>
     <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="178" t="s">
+      <c r="B90" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="179"/>
+      <c r="C90" s="218"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="138" t="s">
@@ -3641,15 +3816,15 @@
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="180" t="s">
+      <c r="B97" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="181"/>
+      <c r="C97" s="220"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="139" t="s">
@@ -3688,12 +3863,12 @@
       <c r="H102" s="145"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="234" t="s">
+      <c r="B103" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="235"/>
-      <c r="D103" s="235"/>
-      <c r="E103" s="236"/>
+      <c r="C103" s="177"/>
+      <c r="D103" s="177"/>
+      <c r="E103" s="178"/>
       <c r="H103" s="145"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3763,12 +3938,12 @@
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="237" t="s">
+      <c r="B109" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="238"/>
-      <c r="D109" s="238"/>
-      <c r="E109" s="239"/>
+      <c r="C109" s="180"/>
+      <c r="D109" s="180"/>
+      <c r="E109" s="181"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="141" t="s">
@@ -3813,14 +3988,14 @@
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="240" t="s">
+      <c r="B113" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="241"/>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="242"/>
+      <c r="C113" s="183"/>
+      <c r="D113" s="183"/>
+      <c r="E113" s="183"/>
+      <c r="F113" s="183"/>
+      <c r="G113" s="184"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="148" t="s">
@@ -3919,10 +4094,10 @@
     </row>
     <row r="119" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="227" t="s">
+      <c r="B120" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="228"/>
+      <c r="C120" s="170"/>
     </row>
     <row r="121" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="149" t="s">
@@ -3944,12 +4119,12 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C124" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C125" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
@@ -3984,10 +4159,10 @@
     </row>
     <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="229" t="s">
+      <c r="B133" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="230"/>
+      <c r="C133" s="172"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="150" t="s">
@@ -4015,12 +4190,12 @@
     </row>
     <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="231" t="s">
+      <c r="B138" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C138" s="232"/>
-      <c r="D138" s="232"/>
-      <c r="E138" s="233"/>
+      <c r="C138" s="174"/>
+      <c r="D138" s="174"/>
+      <c r="E138" s="175"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="151" t="s">
@@ -4036,19 +4211,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>1</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D140" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="E140" s="152">
-        <v>2</v>
-      </c>
+      <c r="E140" s="152"/>
       <c r="F140" s="152" t="s">
         <v>185</v>
       </c>
@@ -4056,19 +4229,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>2</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D141" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="E141" s="152">
-        <v>3</v>
-      </c>
+      <c r="E141" s="152"/>
       <c r="F141" s="152" t="s">
         <v>185</v>
       </c>
@@ -4081,14 +4252,12 @@
         <v>3</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D142" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="E142" s="152">
-        <v>4</v>
-      </c>
+      <c r="E142" s="152"/>
       <c r="F142" s="152" t="s">
         <v>185</v>
       </c>
@@ -4101,14 +4270,12 @@
         <v>4</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D143" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="152">
-        <v>5</v>
-      </c>
+      <c r="E143" s="152"/>
       <c r="F143" s="152" t="s">
         <v>185</v>
       </c>
@@ -4118,11 +4285,11 @@
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="218" t="s">
+      <c r="B145" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="219"/>
-      <c r="D145" s="220"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="162"/>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="153" t="s">
@@ -4137,7 +4304,7 @@
     </row>
     <row r="147" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D147" s="152" t="s">
         <v>190</v>
@@ -4145,454 +4312,431 @@
     </row>
     <row r="148" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C148" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D148" s="152" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C149" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D149" s="152" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="201" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="202"/>
+      <c r="D151" s="203"/>
+    </row>
+    <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1</v>
+      </c>
+      <c r="D153" s="152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="152" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C150" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D150" s="152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="160" t="s">
-        <v>46</v>
-      </c>
-      <c r="C152" s="161"/>
-      <c r="D152" s="162"/>
-    </row>
-    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="C153" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B154" s="2">
-        <v>1</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="152" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C155" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" s="152" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B156" s="2">
-        <v>3</v>
-      </c>
-      <c r="C156" s="2">
-        <v>3</v>
-      </c>
-      <c r="D156" s="152" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="164"/>
-      <c r="D158" s="165"/>
-    </row>
-    <row r="159" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="138" t="s">
+      <c r="C157" s="205"/>
+      <c r="D157" s="206"/>
+    </row>
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="C159" s="57" t="s">
+      <c r="C158" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D159" s="20" t="s">
+      <c r="D158" s="20" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="2">
+        <v>1</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="2">
-        <v>3</v>
-      </c>
-      <c r="C162" s="2">
-        <v>3</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="C164" s="167"/>
-      <c r="D164" s="168"/>
-    </row>
-    <row r="165" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="156" t="s">
+      <c r="C163" s="208"/>
+      <c r="D163" s="209"/>
+    </row>
+    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="C165" s="157" t="s">
+      <c r="C164" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="D165" s="17" t="s">
+      <c r="D164" s="17" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="158" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" s="158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C167" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167" s="158" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C168" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D168" s="158" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="2">
-        <v>4</v>
-      </c>
-      <c r="C169" s="2">
-        <v>4</v>
-      </c>
-      <c r="D169" s="158" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="170"/>
-      <c r="D171" s="171"/>
-    </row>
-    <row r="172" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="159" t="s">
+      <c r="C170" s="211"/>
+      <c r="D170" s="212"/>
+    </row>
+    <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="C172" s="118" t="s">
+      <c r="C171" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D171" s="14" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C175" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C176" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D181" s="124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="152" t="s">
+        <v>274</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
+        <v>2</v>
+      </c>
+      <c r="C183" s="152" t="s">
+        <v>275</v>
+      </c>
+      <c r="D183" s="2">
         <v>7</v>
       </c>
-      <c r="C179" s="2">
-        <v>7</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C182" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="D182" s="124" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
-        <v>1</v>
-      </c>
-      <c r="C183" s="152" t="s">
-        <v>277</v>
-      </c>
-      <c r="D183" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C184" s="152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D184" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185" s="152" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D185" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B186" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C186" s="152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D186" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B187" s="2">
-        <v>5</v>
-      </c>
-      <c r="C187" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="D187" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="126" t="s">
+      <c r="B189" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="C190" s="128" t="s">
+      <c r="C189" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="D190" s="130" t="s">
+      <c r="D189" s="130" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
+        <v>1</v>
+      </c>
+      <c r="C190" s="152" t="s">
+        <v>208</v>
+      </c>
+      <c r="D190" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B191" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C191" s="152" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D191" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
+        <v>3</v>
+      </c>
+      <c r="C192" s="152" t="s">
+        <v>210</v>
+      </c>
+      <c r="D192" s="2">
         <v>2</v>
-      </c>
-      <c r="C192" s="152" t="s">
-        <v>212</v>
-      </c>
-      <c r="D192" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C193" s="152" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D193" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C194" s="152" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D194" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
-        <v>5</v>
-      </c>
-      <c r="C195" s="152" t="s">
-        <v>215</v>
-      </c>
-      <c r="D195" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B170:D170"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B80:G80"/>
     <mergeCell ref="B90:C90"/>
@@ -4605,9 +4749,25 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4626,332 +4786,332 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4974,1142 +5134,1142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/testsDonneespresentation.xlsx
+++ b/DOCS/testsDonneespresentation.xlsx
@@ -2020,6 +2020,180 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2093,180 +2267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2770,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="175" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2821,7 +2821,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="189"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="52" t="s">
         <v>101</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="52" t="s">
         <v>102</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
+      <c r="A6" s="207"/>
       <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+      <c r="A7" s="207"/>
       <c r="B7" s="52" t="s">
         <v>104</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
+      <c r="A8" s="208"/>
       <c r="B8" s="51" t="s">
         <v>105</v>
       </c>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="178" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="209"/>
       <c r="B11" s="57" t="s">
         <v>106</v>
       </c>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="210" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="194"/>
+      <c r="A14" s="211"/>
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="212" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="65" t="s">
         <v>108</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="196"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="65" t="s">
         <v>109</v>
       </c>
@@ -2974,7 +2974,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
+      <c r="A19" s="214"/>
       <c r="B19" s="67" t="s">
         <v>110</v>
       </c>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="215" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="69" t="s">
@@ -3001,7 +3001,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="71" t="s">
         <v>111</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="71" t="s">
         <v>112</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="A24" s="217"/>
       <c r="B24" s="73" t="s">
         <v>113</v>
       </c>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="172" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
+      <c r="A27" s="173"/>
       <c r="B27" s="77" t="s">
         <v>114</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
+      <c r="A28" s="173"/>
       <c r="B28" s="77" t="s">
         <v>115</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
+      <c r="A29" s="173"/>
       <c r="B29" s="77" t="s">
         <v>116</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
@@ -3100,7 +3100,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="215"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="79" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="185" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="81" t="s">
@@ -3127,7 +3127,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="225"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="83" t="s">
         <v>117</v>
       </c>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="187" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -3154,7 +3154,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="227"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="228" t="s">
+      <c r="A39" s="189" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="89" t="s">
@@ -3181,7 +3181,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="229"/>
+      <c r="A40" s="190"/>
       <c r="B40" s="91" t="s">
         <v>119</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="229"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="91" t="s">
         <v>120</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="230"/>
+      <c r="A42" s="191"/>
       <c r="B42" s="93" t="s">
         <v>121</v>
       </c>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="231" t="s">
+      <c r="A44" s="192" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="95" t="s">
@@ -3232,7 +3232,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="232"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="97" t="s">
         <v>122</v>
       </c>
@@ -3240,11 +3240,11 @@
         <v>82</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="233"/>
+      <c r="A46" s="194"/>
       <c r="B46" s="99" t="s">
         <v>123</v>
       </c>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="195" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="101" t="s">
@@ -3271,7 +3271,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="235"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="103" t="s">
         <v>124</v>
       </c>
@@ -3279,11 +3279,11 @@
         <v>83</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="236"/>
+      <c r="A50" s="197"/>
       <c r="B50" s="105" t="s">
         <v>125</v>
       </c>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="237" t="s">
+      <c r="A52" s="198" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="55" t="s">
@@ -3310,7 +3310,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="238"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="107" t="s">
         <v>126</v>
       </c>
@@ -3318,11 +3318,11 @@
         <v>84</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="239"/>
+      <c r="A54" s="200"/>
       <c r="B54" s="57" t="s">
         <v>127</v>
       </c>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="240" t="s">
+      <c r="A56" s="201" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3349,7 +3349,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="241"/>
+      <c r="A57" s="202"/>
       <c r="B57" s="111" t="s">
         <v>128</v>
       </c>
@@ -3357,11 +3357,11 @@
         <v>85</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="242"/>
+      <c r="A58" s="203"/>
       <c r="B58" s="111" t="s">
         <v>129</v>
       </c>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="185" t="s">
+      <c r="A60" s="204" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="114" t="s">
@@ -3388,7 +3388,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="186"/>
+      <c r="A61" s="205"/>
       <c r="B61" s="116" t="s">
         <v>130</v>
       </c>
@@ -3396,11 +3396,11 @@
         <v>80</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="206"/>
       <c r="B62" s="118" t="s">
         <v>131</v>
       </c>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="221" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="120" t="s">
@@ -3427,7 +3427,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
+      <c r="A65" s="222"/>
       <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
+      <c r="A66" s="223"/>
       <c r="B66" s="124" t="s">
         <v>133</v>
       </c>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="224" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="126" t="s">
@@ -3466,7 +3466,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
+      <c r="A69" s="225"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="168"/>
+      <c r="A70" s="226"/>
       <c r="B70" s="130" t="s">
         <v>135</v>
       </c>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="182" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="132" t="s">
@@ -3505,7 +3505,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="222"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="134" t="s">
         <v>136</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="222"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="134" t="s">
         <v>137</v>
       </c>
@@ -3529,7 +3529,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="222"/>
+      <c r="A75" s="183"/>
       <c r="B75" s="134" t="s">
         <v>138</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="222"/>
+      <c r="A76" s="183"/>
       <c r="B76" s="134" t="s">
         <v>139</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="222"/>
+      <c r="A77" s="183"/>
       <c r="B77" s="134" t="s">
         <v>140</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="223"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="136" t="s">
         <v>71</v>
       </c>
@@ -3578,14 +3578,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="216"/>
-      <c r="D80" s="216"/>
-      <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
-      <c r="G80" s="217"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="176"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="177"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="50" t="s">
@@ -3774,10 +3774,10 @@
     </row>
     <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="191" t="s">
+      <c r="B90" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="218"/>
+      <c r="C90" s="179"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="138" t="s">
@@ -3821,10 +3821,10 @@
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="219" t="s">
+      <c r="B97" s="180" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="220"/>
+      <c r="C97" s="181"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="139" t="s">
@@ -3863,12 +3863,12 @@
       <c r="H102" s="145"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="176" t="s">
+      <c r="B103" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="177"/>
-      <c r="D103" s="177"/>
-      <c r="E103" s="178"/>
+      <c r="C103" s="235"/>
+      <c r="D103" s="235"/>
+      <c r="E103" s="236"/>
       <c r="H103" s="145"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3938,12 +3938,12 @@
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="179" t="s">
+      <c r="B109" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="180"/>
-      <c r="D109" s="180"/>
-      <c r="E109" s="181"/>
+      <c r="C109" s="238"/>
+      <c r="D109" s="238"/>
+      <c r="E109" s="239"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="141" t="s">
@@ -3988,14 +3988,14 @@
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="182" t="s">
+      <c r="B113" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="183"/>
-      <c r="D113" s="183"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="183"/>
-      <c r="G113" s="184"/>
+      <c r="C113" s="241"/>
+      <c r="D113" s="241"/>
+      <c r="E113" s="241"/>
+      <c r="F113" s="241"/>
+      <c r="G113" s="242"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="148" t="s">
@@ -4094,10 +4094,10 @@
     </row>
     <row r="119" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="169" t="s">
+      <c r="B120" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="170"/>
+      <c r="C120" s="228"/>
     </row>
     <row r="121" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="149" t="s">
@@ -4159,10 +4159,10 @@
     </row>
     <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="171" t="s">
+      <c r="B133" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="172"/>
+      <c r="C133" s="230"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="150" t="s">
@@ -4190,12 +4190,12 @@
     </row>
     <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="173" t="s">
+      <c r="B138" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C138" s="174"/>
-      <c r="D138" s="174"/>
-      <c r="E138" s="175"/>
+      <c r="C138" s="232"/>
+      <c r="D138" s="232"/>
+      <c r="E138" s="233"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="151" t="s">
@@ -4285,11 +4285,11 @@
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="160" t="s">
+      <c r="B145" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="161"/>
-      <c r="D145" s="162"/>
+      <c r="C145" s="219"/>
+      <c r="D145" s="220"/>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="153" t="s">
@@ -4328,11 +4328,11 @@
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="201" t="s">
+      <c r="B151" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="202"/>
-      <c r="D151" s="203"/>
+      <c r="C151" s="161"/>
+      <c r="D151" s="162"/>
     </row>
     <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="155" t="s">
@@ -4380,11 +4380,11 @@
     </row>
     <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="204" t="s">
+      <c r="B157" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="205"/>
-      <c r="D157" s="206"/>
+      <c r="C157" s="164"/>
+      <c r="D157" s="165"/>
     </row>
     <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="138" t="s">
@@ -4432,11 +4432,11 @@
     </row>
     <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="207" t="s">
+      <c r="B163" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="208"/>
-      <c r="D163" s="209"/>
+      <c r="C163" s="167"/>
+      <c r="D163" s="168"/>
     </row>
     <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="156" t="s">
@@ -4495,11 +4495,11 @@
     </row>
     <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="210" t="s">
+      <c r="B170" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="211"/>
-      <c r="D170" s="212"/>
+      <c r="C170" s="170"/>
+      <c r="D170" s="171"/>
     </row>
     <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="159" t="s">
@@ -4733,6 +4733,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B151:D151"/>
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B163:D163"/>
@@ -4749,21 +4764,6 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DOCS/testsDonneespresentation.xlsx
+++ b/DOCS/testsDonneespresentation.xlsx
@@ -1234,7 +1234,7 @@
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,12 +1251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
@@ -1939,19 +1933,19 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2020,6 +2014,129 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2056,55 +2173,85 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,159 +2261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2770,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2801,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="188" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2821,7 +2815,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="207"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="52" t="s">
         <v>101</v>
       </c>
@@ -2833,7 +2827,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="207"/>
+      <c r="A5" s="189"/>
       <c r="B5" s="52" t="s">
         <v>102</v>
       </c>
@@ -2845,7 +2839,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
+      <c r="A6" s="189"/>
       <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
@@ -2857,7 +2851,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="207"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="52" t="s">
         <v>104</v>
       </c>
@@ -2869,7 +2863,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="208"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="51" t="s">
         <v>105</v>
       </c>
@@ -2882,7 +2876,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="191" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -2896,7 +2890,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="209"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="57" t="s">
         <v>106</v>
       </c>
@@ -2909,7 +2903,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="193" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -2923,7 +2917,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
+      <c r="A14" s="194"/>
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -2936,7 +2930,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="212" t="s">
+      <c r="A16" s="195" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -2950,7 +2944,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="65" t="s">
         <v>108</v>
       </c>
@@ -2962,7 +2956,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="213"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="65" t="s">
         <v>109</v>
       </c>
@@ -2974,7 +2968,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="214"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="67" t="s">
         <v>110</v>
       </c>
@@ -2987,7 +2981,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="198" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="69" t="s">
@@ -3001,7 +2995,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="71" t="s">
         <v>111</v>
       </c>
@@ -3013,7 +3007,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="71" t="s">
         <v>112</v>
       </c>
@@ -3025,7 +3019,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="217"/>
+      <c r="A24" s="200"/>
       <c r="B24" s="73" t="s">
         <v>113</v>
       </c>
@@ -3038,7 +3032,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="213" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -3052,7 +3046,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
+      <c r="A27" s="214"/>
       <c r="B27" s="77" t="s">
         <v>114</v>
       </c>
@@ -3064,7 +3058,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
+      <c r="A28" s="214"/>
       <c r="B28" s="77" t="s">
         <v>115</v>
       </c>
@@ -3076,7 +3070,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
+      <c r="A29" s="214"/>
       <c r="B29" s="77" t="s">
         <v>116</v>
       </c>
@@ -3088,7 +3082,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
+      <c r="A30" s="214"/>
       <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
@@ -3100,7 +3094,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
+      <c r="A31" s="215"/>
       <c r="B31" s="79" t="s">
         <v>31</v>
       </c>
@@ -3113,7 +3107,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="224" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="81" t="s">
@@ -3127,7 +3121,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
+      <c r="A34" s="225"/>
       <c r="B34" s="83" t="s">
         <v>117</v>
       </c>
@@ -3140,7 +3134,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="226" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -3154,7 +3148,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="188"/>
+      <c r="A37" s="227"/>
       <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
@@ -3167,7 +3161,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="240" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="89" t="s">
@@ -3181,7 +3175,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="190"/>
+      <c r="A40" s="241"/>
       <c r="B40" s="91" t="s">
         <v>119</v>
       </c>
@@ -3193,7 +3187,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="190"/>
+      <c r="A41" s="241"/>
       <c r="B41" s="91" t="s">
         <v>120</v>
       </c>
@@ -3205,7 +3199,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
+      <c r="A42" s="242"/>
       <c r="B42" s="93" t="s">
         <v>121</v>
       </c>
@@ -3218,7 +3212,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="228" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="95" t="s">
@@ -3232,7 +3226,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="193"/>
+      <c r="A45" s="229"/>
       <c r="B45" s="97" t="s">
         <v>122</v>
       </c>
@@ -3244,7 +3238,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="194"/>
+      <c r="A46" s="230"/>
       <c r="B46" s="99" t="s">
         <v>123</v>
       </c>
@@ -3257,7 +3251,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="231" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="101" t="s">
@@ -3271,7 +3265,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
+      <c r="A49" s="232"/>
       <c r="B49" s="103" t="s">
         <v>124</v>
       </c>
@@ -3283,7 +3277,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="197"/>
+      <c r="A50" s="233"/>
       <c r="B50" s="105" t="s">
         <v>125</v>
       </c>
@@ -3296,7 +3290,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="198" t="s">
+      <c r="A52" s="234" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="55" t="s">
@@ -3310,7 +3304,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
+      <c r="A53" s="235"/>
       <c r="B53" s="107" t="s">
         <v>126</v>
       </c>
@@ -3322,7 +3316,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200"/>
+      <c r="A54" s="236"/>
       <c r="B54" s="57" t="s">
         <v>127</v>
       </c>
@@ -3335,7 +3329,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="201" t="s">
+      <c r="A56" s="237" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3349,7 +3343,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="202"/>
+      <c r="A57" s="238"/>
       <c r="B57" s="111" t="s">
         <v>128</v>
       </c>
@@ -3361,7 +3355,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="203"/>
+      <c r="A58" s="239"/>
       <c r="B58" s="111" t="s">
         <v>129</v>
       </c>
@@ -3374,7 +3368,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="185" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="114" t="s">
@@ -3388,7 +3382,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="205"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="116" t="s">
         <v>130</v>
       </c>
@@ -3400,7 +3394,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="206"/>
+      <c r="A62" s="187"/>
       <c r="B62" s="118" t="s">
         <v>131</v>
       </c>
@@ -3413,7 +3407,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="221" t="s">
+      <c r="A64" s="163" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="120" t="s">
@@ -3427,7 +3421,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="222"/>
+      <c r="A65" s="164"/>
       <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
@@ -3439,7 +3433,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="223"/>
+      <c r="A66" s="165"/>
       <c r="B66" s="124" t="s">
         <v>133</v>
       </c>
@@ -3452,7 +3446,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="224" t="s">
+      <c r="A68" s="166" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="126" t="s">
@@ -3466,7 +3460,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="225"/>
+      <c r="A69" s="167"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3472,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="226"/>
+      <c r="A70" s="168"/>
       <c r="B70" s="130" t="s">
         <v>135</v>
       </c>
@@ -3491,7 +3485,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="182" t="s">
+      <c r="A72" s="221" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="132" t="s">
@@ -3505,7 +3499,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
+      <c r="A73" s="222"/>
       <c r="B73" s="134" t="s">
         <v>136</v>
       </c>
@@ -3517,7 +3511,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
+      <c r="A74" s="222"/>
       <c r="B74" s="134" t="s">
         <v>137</v>
       </c>
@@ -3529,7 +3523,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="183"/>
+      <c r="A75" s="222"/>
       <c r="B75" s="134" t="s">
         <v>138</v>
       </c>
@@ -3541,7 +3535,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="183"/>
+      <c r="A76" s="222"/>
       <c r="B76" s="134" t="s">
         <v>139</v>
       </c>
@@ -3553,7 +3547,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="183"/>
+      <c r="A77" s="222"/>
       <c r="B77" s="134" t="s">
         <v>140</v>
       </c>
@@ -3565,7 +3559,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="184"/>
+      <c r="A78" s="223"/>
       <c r="B78" s="136" t="s">
         <v>71</v>
       </c>
@@ -3578,14 +3572,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="175" t="s">
+      <c r="B80" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="177"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="216"/>
+      <c r="E80" s="216"/>
+      <c r="F80" s="216"/>
+      <c r="G80" s="217"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="50" t="s">
@@ -3774,10 +3768,10 @@
     </row>
     <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="178" t="s">
+      <c r="B90" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="179"/>
+      <c r="C90" s="218"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="138" t="s">
@@ -3821,10 +3815,10 @@
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="180" t="s">
+      <c r="B97" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="181"/>
+      <c r="C97" s="220"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="139" t="s">
@@ -3863,12 +3857,12 @@
       <c r="H102" s="145"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="234" t="s">
+      <c r="B103" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="235"/>
-      <c r="D103" s="235"/>
-      <c r="E103" s="236"/>
+      <c r="C103" s="177"/>
+      <c r="D103" s="177"/>
+      <c r="E103" s="178"/>
       <c r="H103" s="145"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3938,12 +3932,12 @@
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="237" t="s">
+      <c r="B109" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="238"/>
-      <c r="D109" s="238"/>
-      <c r="E109" s="239"/>
+      <c r="C109" s="180"/>
+      <c r="D109" s="180"/>
+      <c r="E109" s="181"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="141" t="s">
@@ -3988,14 +3982,14 @@
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="240" t="s">
+      <c r="B113" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="241"/>
-      <c r="D113" s="241"/>
-      <c r="E113" s="241"/>
-      <c r="F113" s="241"/>
-      <c r="G113" s="242"/>
+      <c r="C113" s="183"/>
+      <c r="D113" s="183"/>
+      <c r="E113" s="183"/>
+      <c r="F113" s="183"/>
+      <c r="G113" s="184"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="148" t="s">
@@ -4094,10 +4088,10 @@
     </row>
     <row r="119" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="227" t="s">
+      <c r="B120" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="228"/>
+      <c r="C120" s="170"/>
     </row>
     <row r="121" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="149" t="s">
@@ -4159,10 +4153,10 @@
     </row>
     <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="229" t="s">
+      <c r="B133" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="230"/>
+      <c r="C133" s="172"/>
     </row>
     <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="150" t="s">
@@ -4190,12 +4184,12 @@
     </row>
     <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="231" t="s">
+      <c r="B138" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="C138" s="232"/>
-      <c r="D138" s="232"/>
-      <c r="E138" s="233"/>
+      <c r="C138" s="174"/>
+      <c r="D138" s="174"/>
+      <c r="E138" s="175"/>
     </row>
     <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="151" t="s">
@@ -4285,11 +4279,11 @@
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="218" t="s">
+      <c r="B145" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="C145" s="219"/>
-      <c r="D145" s="220"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="162"/>
     </row>
     <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="153" t="s">
@@ -4328,11 +4322,11 @@
     </row>
     <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="160" t="s">
+      <c r="B151" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="C151" s="161"/>
-      <c r="D151" s="162"/>
+      <c r="C151" s="202"/>
+      <c r="D151" s="203"/>
     </row>
     <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="155" t="s">
@@ -4380,11 +4374,11 @@
     </row>
     <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="163" t="s">
+      <c r="B157" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="164"/>
-      <c r="D157" s="165"/>
+      <c r="C157" s="205"/>
+      <c r="D157" s="206"/>
     </row>
     <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="138" t="s">
@@ -4432,11 +4426,11 @@
     </row>
     <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="166" t="s">
+      <c r="B163" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="167"/>
-      <c r="D163" s="168"/>
+      <c r="C163" s="208"/>
+      <c r="D163" s="209"/>
     </row>
     <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="156" t="s">
@@ -4495,11 +4489,11 @@
     </row>
     <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="169" t="s">
+      <c r="B170" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="C170" s="170"/>
-      <c r="D170" s="171"/>
+      <c r="C170" s="211"/>
+      <c r="D170" s="212"/>
     </row>
     <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="159" t="s">
@@ -4733,21 +4727,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="B151:D151"/>
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B163:D163"/>
@@ -4764,6 +4743,21 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DOCS/testsDonneespresentation.xlsx
+++ b/DOCS/testsDonneespresentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="411">
   <si>
     <t>Entités</t>
   </si>
@@ -504,9 +504,6 @@
     <t>trou dans un mur de la salle de formation</t>
   </si>
   <si>
-    <t>poignee de fenetre arrachee</t>
-  </si>
-  <si>
     <t>en cours</t>
   </si>
   <si>
@@ -528,9 +525,6 @@
     <t>stagiaire1</t>
   </si>
   <si>
-    <t>partiel</t>
-  </si>
-  <si>
     <t>tres bon travail</t>
   </si>
   <si>
@@ -1219,6 +1213,42 @@
   </si>
   <si>
     <t>3.3.3</t>
+  </si>
+  <si>
+    <t>id User</t>
+  </si>
+  <si>
+    <t>id lieu</t>
+  </si>
+  <si>
+    <t>id env</t>
+  </si>
+  <si>
+    <t>id offre</t>
+  </si>
+  <si>
+    <t>id fiche intervention</t>
+  </si>
+  <si>
+    <t>id mesm</t>
+  </si>
+  <si>
+    <t>id type maintenance</t>
+  </si>
+  <si>
+    <t>il sera necessaire de refaire me bas du mur en dessous de l evier</t>
+  </si>
+  <si>
+    <t>reparation de la fuite</t>
+  </si>
+  <si>
+    <t>changer l'ampoule</t>
+  </si>
+  <si>
+    <t>interrupteur pas debloquer</t>
+  </si>
+  <si>
+    <t>je n ai pas les materiaux</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2014,13 +2044,142 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,21 +2206,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2089,178 +2233,94 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,6 +2331,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9966"/>
+      <color rgb="FF0099CC"/>
+      <color rgb="FF00FFCC"/>
       <color rgb="FF99CC00"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFCCECFF"/>
@@ -2278,9 +2341,6 @@
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF0099CC"/>
-      <color rgb="FF00FFCC"/>
-      <color rgb="FFFF9966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2300,13 +2360,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>910004</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2344,13 +2404,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>687495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2388,13 +2448,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>726758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2432,13 +2492,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1282001</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2762,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,13 +2834,13 @@
     <col min="2" max="2" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2801,7 +2861,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="188" t="s">
+      <c r="A3" s="163" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2815,7 +2875,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="189"/>
+      <c r="A4" s="195"/>
       <c r="B4" s="52" t="s">
         <v>101</v>
       </c>
@@ -2827,7 +2887,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="52" t="s">
         <v>102</v>
       </c>
@@ -2839,7 +2899,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
@@ -2851,7 +2911,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="52" t="s">
         <v>104</v>
       </c>
@@ -2863,7 +2923,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="51" t="s">
         <v>105</v>
       </c>
@@ -2876,7 +2936,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="166" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -2890,7 +2950,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
+      <c r="A11" s="197"/>
       <c r="B11" s="57" t="s">
         <v>106</v>
       </c>
@@ -2903,7 +2963,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="198" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -2917,7 +2977,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="194"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -2930,7 +2990,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="200" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -2944,7 +3004,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="196"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="65" t="s">
         <v>108</v>
       </c>
@@ -2956,7 +3016,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="196"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="65" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +3028,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="67" t="s">
         <v>110</v>
       </c>
@@ -2981,7 +3041,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="203" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="69" t="s">
@@ -2995,7 +3055,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
+      <c r="A22" s="204"/>
       <c r="B22" s="71" t="s">
         <v>111</v>
       </c>
@@ -3007,7 +3067,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="204"/>
       <c r="B23" s="71" t="s">
         <v>112</v>
       </c>
@@ -3019,7 +3079,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="73" t="s">
         <v>113</v>
       </c>
@@ -3032,7 +3092,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="160" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -3046,7 +3106,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="214"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="77" t="s">
         <v>114</v>
       </c>
@@ -3058,7 +3118,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="214"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="77" t="s">
         <v>115</v>
       </c>
@@ -3070,7 +3130,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="214"/>
+      <c r="A29" s="161"/>
       <c r="B29" s="77" t="s">
         <v>116</v>
       </c>
@@ -3082,7 +3142,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="214"/>
+      <c r="A30" s="161"/>
       <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
@@ -3094,7 +3154,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="215"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="79" t="s">
         <v>31</v>
       </c>
@@ -3107,7 +3167,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="173" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="81" t="s">
@@ -3121,7 +3181,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="225"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="83" t="s">
         <v>117</v>
       </c>
@@ -3134,7 +3194,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="175" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -3148,7 +3208,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="227"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
@@ -3161,7 +3221,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="240" t="s">
+      <c r="A39" s="177" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="89" t="s">
@@ -3175,7 +3235,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="241"/>
+      <c r="A40" s="178"/>
       <c r="B40" s="91" t="s">
         <v>119</v>
       </c>
@@ -3187,7 +3247,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="241"/>
+      <c r="A41" s="178"/>
       <c r="B41" s="91" t="s">
         <v>120</v>
       </c>
@@ -3199,7 +3259,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="242"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="93" t="s">
         <v>121</v>
       </c>
@@ -3212,7 +3272,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="180" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="95" t="s">
@@ -3226,7 +3286,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="229"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="97" t="s">
         <v>122</v>
       </c>
@@ -3238,7 +3298,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="230"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="99" t="s">
         <v>123</v>
       </c>
@@ -3251,7 +3311,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="231" t="s">
+      <c r="A48" s="183" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="101" t="s">
@@ -3265,7 +3325,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="232"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="103" t="s">
         <v>124</v>
       </c>
@@ -3277,7 +3337,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="233"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="105" t="s">
         <v>125</v>
       </c>
@@ -3290,7 +3350,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="186" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="55" t="s">
@@ -3304,7 +3364,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="235"/>
+      <c r="A53" s="187"/>
       <c r="B53" s="107" t="s">
         <v>126</v>
       </c>
@@ -3316,7 +3376,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="236"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="57" t="s">
         <v>127</v>
       </c>
@@ -3329,7 +3389,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="237" t="s">
+      <c r="A56" s="189" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3343,7 +3403,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="238"/>
+      <c r="A57" s="190"/>
       <c r="B57" s="111" t="s">
         <v>128</v>
       </c>
@@ -3355,7 +3415,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="239"/>
+      <c r="A58" s="191"/>
       <c r="B58" s="111" t="s">
         <v>129</v>
       </c>
@@ -3368,7 +3428,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="185" t="s">
+      <c r="A60" s="192" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="114" t="s">
@@ -3382,7 +3442,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="186"/>
+      <c r="A61" s="193"/>
       <c r="B61" s="116" t="s">
         <v>130</v>
       </c>
@@ -3394,7 +3454,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="194"/>
       <c r="B62" s="118" t="s">
         <v>131</v>
       </c>
@@ -3407,7 +3467,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="163" t="s">
+      <c r="A64" s="206" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="120" t="s">
@@ -3421,7 +3481,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="164"/>
+      <c r="A65" s="207"/>
       <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
@@ -3433,7 +3493,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
+      <c r="A66" s="208"/>
       <c r="B66" s="124" t="s">
         <v>133</v>
       </c>
@@ -3446,7 +3506,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="166" t="s">
+      <c r="A68" s="209" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="126" t="s">
@@ -3460,7 +3520,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
+      <c r="A69" s="210"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -3472,7 +3532,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="168"/>
+      <c r="A70" s="211"/>
       <c r="B70" s="130" t="s">
         <v>135</v>
       </c>
@@ -3485,7 +3545,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="221" t="s">
+      <c r="A72" s="170" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="132" t="s">
@@ -3499,7 +3559,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="222"/>
+      <c r="A73" s="171"/>
       <c r="B73" s="134" t="s">
         <v>136</v>
       </c>
@@ -3511,7 +3571,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="222"/>
+      <c r="A74" s="171"/>
       <c r="B74" s="134" t="s">
         <v>137</v>
       </c>
@@ -3523,7 +3583,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="222"/>
+      <c r="A75" s="171"/>
       <c r="B75" s="134" t="s">
         <v>138</v>
       </c>
@@ -3535,7 +3595,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="222"/>
+      <c r="A76" s="171"/>
       <c r="B76" s="134" t="s">
         <v>139</v>
       </c>
@@ -3547,7 +3607,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="222"/>
+      <c r="A77" s="171"/>
       <c r="B77" s="134" t="s">
         <v>140</v>
       </c>
@@ -3559,7 +3619,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="223"/>
+      <c r="A78" s="172"/>
       <c r="B78" s="136" t="s">
         <v>71</v>
       </c>
@@ -3572,14 +3632,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="188" t="s">
+      <c r="B80" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="216"/>
-      <c r="D80" s="216"/>
-      <c r="E80" s="216"/>
-      <c r="F80" s="216"/>
-      <c r="G80" s="217"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="164"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="164"/>
+      <c r="G80" s="165"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="50" t="s">
@@ -3601,7 +3661,7 @@
         <v>105</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -3633,10 +3693,10 @@
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E83" s="146">
         <v>614398480</v>
@@ -3679,19 +3739,19 @@
         <v>4</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E85" s="146">
         <v>718251232</v>
       </c>
       <c r="F85" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H85" s="2">
         <v>4</v>
@@ -3702,10 +3762,10 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E86" s="146">
         <v>632125874</v>
@@ -3768,10 +3828,10 @@
     </row>
     <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="191" t="s">
+      <c r="B90" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="218"/>
+      <c r="C90" s="167"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="138" t="s">
@@ -3810,15 +3870,15 @@
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="219" t="s">
+      <c r="B97" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="220"/>
+      <c r="C97" s="169"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="139" t="s">
@@ -3857,12 +3917,12 @@
       <c r="H102" s="145"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="176" t="s">
+      <c r="B103" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="177"/>
-      <c r="D103" s="177"/>
-      <c r="E103" s="178"/>
+      <c r="C103" s="215"/>
+      <c r="D103" s="215"/>
+      <c r="E103" s="216"/>
       <c r="H103" s="145"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3878,6 +3938,9 @@
       <c r="E104" s="42" t="s">
         <v>110</v>
       </c>
+      <c r="F104" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="G104" s="143"/>
       <c r="H104" s="145"/>
       <c r="I104" s="144"/>
@@ -3895,6 +3958,9 @@
       <c r="E105" s="2">
         <v>1654321</v>
       </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
       <c r="G105" s="143"/>
       <c r="H105" s="145"/>
       <c r="I105" s="144"/>
@@ -3912,6 +3978,9 @@
       <c r="E106" s="2">
         <v>2234567</v>
       </c>
+      <c r="F106" s="2">
+        <v>2</v>
+      </c>
       <c r="G106" s="143"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -3927,17 +3996,20 @@
       <c r="E107" s="2">
         <v>3546123</v>
       </c>
+      <c r="F107" s="2">
+        <v>2</v>
+      </c>
       <c r="G107" s="145"/>
       <c r="H107" s="145"/>
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="179" t="s">
+      <c r="B109" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="180"/>
-      <c r="D109" s="180"/>
-      <c r="E109" s="181"/>
+      <c r="C109" s="218"/>
+      <c r="D109" s="218"/>
+      <c r="E109" s="219"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="141" t="s">
@@ -3982,14 +4054,14 @@
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="182" t="s">
+      <c r="B113" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="183"/>
-      <c r="D113" s="183"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="183"/>
-      <c r="G113" s="184"/>
+      <c r="C113" s="221"/>
+      <c r="D113" s="221"/>
+      <c r="E113" s="221"/>
+      <c r="F113" s="221"/>
+      <c r="G113" s="222"/>
     </row>
     <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="148" t="s">
@@ -4010,6 +4082,12 @@
       <c r="G114" s="36" t="s">
         <v>31</v>
       </c>
+      <c r="H114" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
@@ -4022,13 +4100,19 @@
         <v>159</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -4042,13 +4126,19 @@
         <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -4062,675 +4152,876 @@
         <v>161</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="2">
+        <v>180</v>
+      </c>
+      <c r="H117" s="2">
+        <v>2</v>
+      </c>
+      <c r="I117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="212" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="213"/>
+    </row>
+    <row r="120" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="149" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>2</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>3</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="145">
-        <v>44328</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I118" s="145"/>
-    </row>
-    <row r="119" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="170"/>
-    </row>
-    <row r="121" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="149" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>6</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>7</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="2" t="s">
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
+        <v>8</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="2" t="s">
+      <c r="D128" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C129" s="2" t="s">
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
+        <v>10</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C130" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C131" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B133" s="171" t="s">
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="172"/>
-    </row>
-    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="150" t="s">
+      <c r="C132" s="234"/>
+    </row>
+    <row r="133" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="C133" s="31" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="231"/>
+      <c r="D137" s="231"/>
+      <c r="E137" s="232"/>
+    </row>
+    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D138" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
         <v>1</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C139" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D139" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="E139" s="152"/>
+      <c r="F139" s="152" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B136" s="2">
+      <c r="G139" s="152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
         <v>2</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="173" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" s="174"/>
-      <c r="D138" s="174"/>
-      <c r="E138" s="175"/>
-    </row>
-    <row r="139" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="151" t="s">
-        <v>92</v>
-      </c>
-      <c r="C139" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="D139" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="2">
-        <v>1</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D140" s="152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E140" s="152"/>
       <c r="F140" s="152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G140" s="152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D141" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E141" s="152"/>
       <c r="F141" s="152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G141" s="152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D142" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E142" s="152"/>
       <c r="F142" s="152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G142" s="152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B143" s="2">
-        <v>4</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D143" s="152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" s="227" t="s">
+        <v>43</v>
+      </c>
+      <c r="C144" s="228"/>
+      <c r="D144" s="229"/>
+    </row>
+    <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="153" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" s="152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>2</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D147" s="152" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D148" s="152" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="235" t="s">
+        <v>46</v>
+      </c>
+      <c r="C150" s="236"/>
+      <c r="D150" s="237"/>
+    </row>
+    <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1</v>
+      </c>
+      <c r="D152" s="152" t="s">
         <v>189</v>
       </c>
-      <c r="E143" s="152"/>
-      <c r="F143" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="G143" s="152" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="C145" s="161"/>
-      <c r="D145" s="162"/>
-    </row>
-    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="153" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" s="99" t="s">
-        <v>122</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C147" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D147" s="152" t="s">
+    </row>
+    <row r="153" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>2</v>
+      </c>
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="152" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C148" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D148" s="152" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C149" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D149" s="152" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="201" t="s">
-        <v>46</v>
-      </c>
-      <c r="C151" s="202"/>
-      <c r="D151" s="203"/>
-    </row>
-    <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="C152" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="2">
-        <v>1</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="152" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D154" s="152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="166" t="s">
+        <v>49</v>
+      </c>
+      <c r="C156" s="223"/>
+      <c r="D156" s="167"/>
+    </row>
+    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B155" s="2">
-        <v>3</v>
-      </c>
-      <c r="C155" s="2">
-        <v>3</v>
-      </c>
-      <c r="D155" s="152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B157" s="204" t="s">
-        <v>49</v>
-      </c>
-      <c r="C157" s="205"/>
-      <c r="D157" s="206"/>
-    </row>
-    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="C158" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D158" s="20" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="224" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="225"/>
+      <c r="D162" s="226"/>
+    </row>
+    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="C163" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1</v>
+      </c>
+      <c r="D164" s="158" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="2">
-        <v>3</v>
-      </c>
-      <c r="C161" s="2">
-        <v>3</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="207" t="s">
-        <v>52</v>
-      </c>
-      <c r="C163" s="208"/>
-      <c r="D163" s="209"/>
-    </row>
-    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C164" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" s="158" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C166" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D166" s="158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C167" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D167" s="158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="238" t="s">
+        <v>55</v>
+      </c>
+      <c r="C169" s="239"/>
+      <c r="D169" s="240"/>
+    </row>
+    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="2">
-        <v>4</v>
-      </c>
-      <c r="C168" s="2">
-        <v>4</v>
-      </c>
-      <c r="D168" s="158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="210" t="s">
-        <v>55</v>
-      </c>
-      <c r="C170" s="211"/>
-      <c r="D170" s="212"/>
-    </row>
-    <row r="171" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="159" t="s">
-        <v>97</v>
-      </c>
-      <c r="C171" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C175" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="249" t="s">
+        <v>58</v>
+      </c>
+      <c r="C179" s="250"/>
+      <c r="D179" s="251"/>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="252" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B182" s="2">
+        <v>2</v>
+      </c>
+      <c r="C182" s="152" t="s">
+        <v>273</v>
+      </c>
+      <c r="D182" s="2">
         <v>7</v>
       </c>
-      <c r="C178" s="2">
-        <v>7</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C181" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="D181" s="124" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="2">
-        <v>1</v>
-      </c>
-      <c r="C182" s="152" t="s">
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
+        <v>3</v>
+      </c>
+      <c r="C183" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="D182" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
-        <v>2</v>
-      </c>
-      <c r="C183" s="152" t="s">
-        <v>275</v>
-      </c>
       <c r="D183" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C184" s="152" t="s">
+        <v>275</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B185" s="2">
+        <v>5</v>
+      </c>
+      <c r="C185" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="D184" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
-        <v>4</v>
-      </c>
-      <c r="C185" s="152" t="s">
-        <v>277</v>
-      </c>
       <c r="D185" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B186" s="2">
-        <v>5</v>
-      </c>
-      <c r="C186" s="152" t="s">
-        <v>278</v>
-      </c>
-      <c r="D186" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="245" t="s">
+        <v>62</v>
+      </c>
+      <c r="C187" s="246"/>
+      <c r="D187" s="247"/>
+    </row>
     <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="126" t="s">
+      <c r="B188" s="248" t="s">
         <v>99</v>
       </c>
-      <c r="C189" s="128" t="s">
+      <c r="C188" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="D189" s="130" t="s">
+      <c r="D188" s="8" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+      <c r="C189" s="152" t="s">
+        <v>206</v>
+      </c>
+      <c r="D189" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B190" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" s="152" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="2">
+        <v>3</v>
+      </c>
+      <c r="C191" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="D190" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
+      <c r="D191" s="2">
         <v>2</v>
-      </c>
-      <c r="C191" s="152" t="s">
-        <v>209</v>
-      </c>
-      <c r="D191" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
+        <v>4</v>
+      </c>
+      <c r="C192" s="152" t="s">
+        <v>209</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="2">
+        <v>5</v>
+      </c>
+      <c r="C193" s="152" t="s">
+        <v>210</v>
+      </c>
+      <c r="D193" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="241" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" s="242"/>
+      <c r="D195" s="242"/>
+      <c r="E195" s="242"/>
+      <c r="F195" s="242"/>
+      <c r="G195" s="242"/>
+      <c r="H195" s="243"/>
+    </row>
+    <row r="196" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="244" t="s">
+        <v>100</v>
+      </c>
+      <c r="C196" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D196" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="E196" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="F196" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="G196" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+      <c r="C197" s="145">
+        <v>44060</v>
+      </c>
+      <c r="D197" s="147">
+        <v>44060.395833333336</v>
+      </c>
+      <c r="E197" s="147">
+        <v>44062.583333333336</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H197" s="152" t="s">
+        <v>406</v>
+      </c>
+      <c r="I197" s="2">
+        <v>1</v>
+      </c>
+      <c r="J197" s="2">
         <v>3</v>
       </c>
-      <c r="C192" s="152" t="s">
-        <v>210</v>
-      </c>
-      <c r="D192" s="2">
+      <c r="K197" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
-        <v>4</v>
-      </c>
-      <c r="C193" s="152" t="s">
-        <v>211</v>
-      </c>
-      <c r="D193" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
-        <v>5</v>
-      </c>
-      <c r="C194" s="152" t="s">
-        <v>212</v>
-      </c>
-      <c r="D194" s="2">
-        <v>4</v>
-      </c>
+      <c r="C198" s="145">
+        <v>44269</v>
+      </c>
+      <c r="D198" s="147">
+        <v>44061.395833333336</v>
+      </c>
+      <c r="E198" s="147">
+        <v>44061.395833333336</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H198" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="I198" s="2">
+        <v>2</v>
+      </c>
+      <c r="J198" s="2">
+        <v>2</v>
+      </c>
+      <c r="K198" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C199" s="145"/>
+      <c r="D199" s="147"/>
+      <c r="E199" s="147"/>
+      <c r="H199" s="152"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C200" s="145"/>
+      <c r="D200" s="147"/>
+      <c r="E200" s="147"/>
+      <c r="H200" s="152"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B170:D170"/>
+  <mergeCells count="34">
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B169:D169"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="B80:G80"/>
     <mergeCell ref="B90:C90"/>
@@ -4743,21 +5034,6 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B113:G113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4780,332 +5056,332 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5128,1142 +5404,1142 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/DOCS/testsDonneespresentation.xlsx
+++ b/DOCS/testsDonneespresentation.xlsx
@@ -1314,7 +1314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,6 +1414,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0099CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83EDA4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4F2BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1AB838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF109213"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2044,6 +2116,198 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,21 +2317,12 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2140,187 +2395,61 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2331,16 +2460,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF109213"/>
+      <color rgb="FF1AB838"/>
+      <color rgb="FFB4F2BA"/>
+      <color rgb="FF83EDA4"/>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCECFF"/>
       <color rgb="FFFF9966"/>
       <color rgb="FF0099CC"/>
-      <color rgb="FF00FFCC"/>
       <color rgb="FF99CC00"/>
-      <color rgb="FFCCCCFF"/>
-      <color rgb="FFCCECFF"/>
-      <color rgb="FF99FFCC"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2360,13 +2489,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>910004</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>685801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2404,13 +2533,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>687495</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2448,13 +2577,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>726758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2492,13 +2621,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1282001</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2822,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179:D180"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2990,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="200" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -2875,7 +3004,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="195"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="52" t="s">
         <v>101</v>
       </c>
@@ -2887,7 +3016,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="52" t="s">
         <v>102</v>
       </c>
@@ -2899,7 +3028,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
@@ -2911,7 +3040,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="52" t="s">
         <v>104</v>
       </c>
@@ -2923,7 +3052,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="51" t="s">
         <v>105</v>
       </c>
@@ -2936,7 +3065,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="203" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -2950,7 +3079,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="197"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="57" t="s">
         <v>106</v>
       </c>
@@ -2963,7 +3092,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="205" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -2977,7 +3106,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -2990,7 +3119,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="207" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -3004,7 +3133,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="208"/>
       <c r="B17" s="65" t="s">
         <v>108</v>
       </c>
@@ -3016,7 +3145,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
+      <c r="A18" s="208"/>
       <c r="B18" s="65" t="s">
         <v>109</v>
       </c>
@@ -3028,7 +3157,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="202"/>
+      <c r="A19" s="209"/>
       <c r="B19" s="67" t="s">
         <v>110</v>
       </c>
@@ -3041,7 +3170,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="210" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="69" t="s">
@@ -3055,7 +3184,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="204"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="71" t="s">
         <v>111</v>
       </c>
@@ -3067,7 +3196,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="204"/>
+      <c r="A23" s="211"/>
       <c r="B23" s="71" t="s">
         <v>112</v>
       </c>
@@ -3079,7 +3208,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="205"/>
+      <c r="A24" s="212"/>
       <c r="B24" s="73" t="s">
         <v>113</v>
       </c>
@@ -3092,7 +3221,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="224" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
@@ -3106,7 +3235,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
+      <c r="A27" s="225"/>
       <c r="B27" s="77" t="s">
         <v>114</v>
       </c>
@@ -3118,7 +3247,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="161"/>
+      <c r="A28" s="225"/>
       <c r="B28" s="77" t="s">
         <v>115</v>
       </c>
@@ -3130,7 +3259,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
+      <c r="A29" s="225"/>
       <c r="B29" s="77" t="s">
         <v>116</v>
       </c>
@@ -3142,7 +3271,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="161"/>
+      <c r="A30" s="225"/>
       <c r="B30" s="77" t="s">
         <v>30</v>
       </c>
@@ -3154,7 +3283,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="79" t="s">
         <v>31</v>
       </c>
@@ -3167,7 +3296,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="234" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="81" t="s">
@@ -3181,7 +3310,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
+      <c r="A34" s="235"/>
       <c r="B34" s="83" t="s">
         <v>117</v>
       </c>
@@ -3194,7 +3323,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="236" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="85" t="s">
@@ -3208,7 +3337,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
+      <c r="A37" s="237"/>
       <c r="B37" s="87" t="s">
         <v>118</v>
       </c>
@@ -3221,7 +3350,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="177" t="s">
+      <c r="A39" s="238" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="89" t="s">
@@ -3235,7 +3364,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="178"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="91" t="s">
         <v>119</v>
       </c>
@@ -3247,7 +3376,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="178"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="91" t="s">
         <v>120</v>
       </c>
@@ -3259,7 +3388,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="179"/>
+      <c r="A42" s="240"/>
       <c r="B42" s="93" t="s">
         <v>121</v>
       </c>
@@ -3272,7 +3401,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="180" t="s">
+      <c r="A44" s="241" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="95" t="s">
@@ -3286,7 +3415,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
+      <c r="A45" s="242"/>
       <c r="B45" s="97" t="s">
         <v>122</v>
       </c>
@@ -3298,7 +3427,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
+      <c r="A46" s="243"/>
       <c r="B46" s="99" t="s">
         <v>123</v>
       </c>
@@ -3311,7 +3440,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="183" t="s">
+      <c r="A48" s="244" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="101" t="s">
@@ -3325,7 +3454,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
+      <c r="A49" s="245"/>
       <c r="B49" s="103" t="s">
         <v>124</v>
       </c>
@@ -3337,7 +3466,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="185"/>
+      <c r="A50" s="246"/>
       <c r="B50" s="105" t="s">
         <v>125</v>
       </c>
@@ -3350,7 +3479,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="186" t="s">
+      <c r="A52" s="247" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="55" t="s">
@@ -3364,7 +3493,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="187"/>
+      <c r="A53" s="248"/>
       <c r="B53" s="107" t="s">
         <v>126</v>
       </c>
@@ -3376,7 +3505,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="188"/>
+      <c r="A54" s="249"/>
       <c r="B54" s="57" t="s">
         <v>127</v>
       </c>
@@ -3389,7 +3518,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="189" t="s">
+      <c r="A56" s="250" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="109" t="s">
@@ -3403,7 +3532,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="190"/>
+      <c r="A57" s="251"/>
       <c r="B57" s="111" t="s">
         <v>128</v>
       </c>
@@ -3415,7 +3544,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="191"/>
+      <c r="A58" s="252"/>
       <c r="B58" s="111" t="s">
         <v>129</v>
       </c>
@@ -3428,7 +3557,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="192" t="s">
+      <c r="A60" s="197" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="114" t="s">
@@ -3442,7 +3571,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="193"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="116" t="s">
         <v>130</v>
       </c>
@@ -3454,7 +3583,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="194"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="118" t="s">
         <v>131</v>
       </c>
@@ -3467,7 +3596,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="206" t="s">
+      <c r="A64" s="175" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="120" t="s">
@@ -3481,7 +3610,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="207"/>
+      <c r="A65" s="176"/>
       <c r="B65" s="122" t="s">
         <v>132</v>
       </c>
@@ -3493,7 +3622,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="208"/>
+      <c r="A66" s="177"/>
       <c r="B66" s="124" t="s">
         <v>133</v>
       </c>
@@ -3506,7 +3635,7 @@
     </row>
     <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="209" t="s">
+      <c r="A68" s="178" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="126" t="s">
@@ -3520,7 +3649,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="210"/>
+      <c r="A69" s="179"/>
       <c r="B69" s="128" t="s">
         <v>134</v>
       </c>
@@ -3532,7 +3661,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="211"/>
+      <c r="A70" s="180"/>
       <c r="B70" s="130" t="s">
         <v>135</v>
       </c>
@@ -3545,7 +3674,7 @@
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="170" t="s">
+      <c r="A72" s="231" t="s">
         <v>66</v>
       </c>
       <c r="B72" s="132" t="s">
@@ -3559,7 +3688,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="171"/>
+      <c r="A73" s="232"/>
       <c r="B73" s="134" t="s">
         <v>136</v>
       </c>
@@ -3571,7 +3700,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="171"/>
+      <c r="A74" s="232"/>
       <c r="B74" s="134" t="s">
         <v>137</v>
       </c>
@@ -3583,7 +3712,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="171"/>
+      <c r="A75" s="232"/>
       <c r="B75" s="134" t="s">
         <v>138</v>
       </c>
@@ -3595,7 +3724,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="171"/>
+      <c r="A76" s="232"/>
       <c r="B76" s="134" t="s">
         <v>139</v>
       </c>
@@ -3607,7 +3736,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="171"/>
+      <c r="A77" s="232"/>
       <c r="B77" s="134" t="s">
         <v>140</v>
       </c>
@@ -3619,7 +3748,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="172"/>
+      <c r="A78" s="233"/>
       <c r="B78" s="136" t="s">
         <v>71</v>
       </c>
@@ -3632,14 +3761,14 @@
     </row>
     <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="163" t="s">
+      <c r="B80" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="164"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="164"/>
-      <c r="F80" s="164"/>
-      <c r="G80" s="165"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="227"/>
+      <c r="E80" s="227"/>
+      <c r="F80" s="227"/>
+      <c r="G80" s="228"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="50" t="s">
@@ -3683,7 +3812,7 @@
       <c r="G82" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="268">
         <v>1</v>
       </c>
       <c r="I82" s="146"/>
@@ -3707,7 +3836,7 @@
       <c r="G83" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="269">
         <v>2</v>
       </c>
     </row>
@@ -3730,7 +3859,7 @@
       <c r="G84" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="269">
         <v>2</v>
       </c>
     </row>
@@ -3753,7 +3882,7 @@
       <c r="G85" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="270">
         <v>4</v>
       </c>
     </row>
@@ -3776,7 +3905,7 @@
       <c r="G86" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="271">
         <v>3</v>
       </c>
     </row>
@@ -3799,7 +3928,7 @@
       <c r="G87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="271">
         <v>3</v>
       </c>
     </row>
@@ -3822,16 +3951,16 @@
       <c r="G88" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="271">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="166" t="s">
+      <c r="B90" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="167"/>
+      <c r="C90" s="217"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="138" t="s">
@@ -3842,7 +3971,7 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="2">
+      <c r="B92" s="268">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3850,7 +3979,7 @@
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B93" s="2">
+      <c r="B93" s="269">
         <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3858,7 +3987,7 @@
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="2">
+      <c r="B94" s="271">
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3866,7 +3995,7 @@
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="2">
+      <c r="B95" s="270">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3875,10 +4004,10 @@
     </row>
     <row r="96" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="168" t="s">
+      <c r="B97" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="169"/>
+      <c r="C97" s="230"/>
     </row>
     <row r="98" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="139" t="s">
@@ -3889,7 +4018,7 @@
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="2">
+      <c r="B99" s="257">
         <v>1</v>
       </c>
       <c r="C99" s="142">
@@ -3898,7 +4027,7 @@
       <c r="J99" s="147"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="2">
+      <c r="B100" s="255">
         <v>2</v>
       </c>
       <c r="C100" s="142">
@@ -3917,12 +4046,12 @@
       <c r="H102" s="145"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="214" t="s">
+      <c r="B103" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="215"/>
-      <c r="D103" s="215"/>
-      <c r="E103" s="216"/>
+      <c r="C103" s="189"/>
+      <c r="D103" s="189"/>
+      <c r="E103" s="190"/>
       <c r="H103" s="145"/>
     </row>
     <row r="104" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3958,7 +4087,7 @@
       <c r="E105" s="2">
         <v>1654321</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="266">
         <v>1</v>
       </c>
       <c r="G105" s="143"/>
@@ -3978,7 +4107,7 @@
       <c r="E106" s="2">
         <v>2234567</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="261">
         <v>2</v>
       </c>
       <c r="G106" s="143"/>
@@ -3996,7 +4125,7 @@
       <c r="E107" s="2">
         <v>3546123</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="261">
         <v>2</v>
       </c>
       <c r="G107" s="145"/>
@@ -4004,12 +4133,12 @@
     </row>
     <row r="108" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="217" t="s">
+      <c r="B109" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="218"/>
-      <c r="D109" s="218"/>
-      <c r="E109" s="219"/>
+      <c r="C109" s="192"/>
+      <c r="D109" s="192"/>
+      <c r="E109" s="193"/>
     </row>
     <row r="110" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="141" t="s">
@@ -4026,7 +4155,7 @@
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="2">
+      <c r="B111" s="266">
         <v>1</v>
       </c>
       <c r="C111" s="142">
@@ -4039,8 +4168,8 @@
         <v>44174</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="2">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="261">
         <v>2</v>
       </c>
       <c r="C112" s="142">
@@ -4053,544 +4182,607 @@
         <v>44429</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="220" t="s">
+    <row r="113" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="256"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="145"/>
+      <c r="E113" s="145"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="221"/>
-      <c r="D113" s="221"/>
-      <c r="E113" s="221"/>
-      <c r="F113" s="221"/>
-      <c r="G113" s="222"/>
-    </row>
-    <row r="114" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="148" t="s">
+      <c r="C114" s="195"/>
+      <c r="D114" s="195"/>
+      <c r="E114" s="195"/>
+      <c r="F114" s="195"/>
+      <c r="G114" s="196"/>
+    </row>
+    <row r="115" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="79" t="s">
+      <c r="C115" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D114" s="79" t="s">
+      <c r="D115" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="E114" s="79" t="s">
+      <c r="E115" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="F114" s="79" t="s">
+      <c r="F115" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="G114" s="36" t="s">
+      <c r="G115" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="2">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="253">
         <v>1</v>
       </c>
-      <c r="C115" s="145">
+      <c r="C116" s="145">
         <v>44057</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="2">
-        <v>2</v>
-      </c>
-      <c r="C116" s="145">
-        <v>44269</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H116" s="2">
+        <v>169</v>
+      </c>
+      <c r="H116" s="257">
         <v>1</v>
       </c>
-      <c r="I116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="2">
-        <v>3</v>
+      <c r="I116" s="262">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="254">
+        <v>2</v>
       </c>
       <c r="C117" s="145">
-        <v>44356</v>
+        <v>44269</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H117" s="2">
+      <c r="G117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H117" s="257">
+        <v>1</v>
+      </c>
+      <c r="I117" s="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <v>3</v>
+      </c>
+      <c r="C118" s="145">
+        <v>44356</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H118" s="255">
         <v>2</v>
       </c>
-      <c r="I117" s="2">
+      <c r="I118" s="259">
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="212" t="s">
+    <row r="119" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="145"/>
+      <c r="H119" s="256"/>
+      <c r="I119" s="256"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="166" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="167"/>
+      <c r="D120" s="167"/>
+      <c r="E120" s="167"/>
+      <c r="F120" s="167"/>
+      <c r="G120" s="167"/>
+      <c r="H120" s="168"/>
+    </row>
+    <row r="121" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="160" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="F121" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="G121" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="145">
+        <v>44060</v>
+      </c>
+      <c r="D122" s="147">
+        <v>44060.395833333336</v>
+      </c>
+      <c r="E122" s="147">
+        <v>44062.583333333336</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H122" s="152" t="s">
+        <v>406</v>
+      </c>
+      <c r="I122" s="253">
+        <v>1</v>
+      </c>
+      <c r="J122" s="263">
+        <v>3</v>
+      </c>
+      <c r="K122" s="267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>2</v>
+      </c>
+      <c r="C123" s="145">
+        <v>44269</v>
+      </c>
+      <c r="D123" s="147">
+        <v>44061.395833333336</v>
+      </c>
+      <c r="E123" s="147">
+        <v>44061.395833333336</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H123" s="152" t="s">
+        <v>410</v>
+      </c>
+      <c r="I123" s="254">
+        <v>2</v>
+      </c>
+      <c r="J123" s="260">
+        <v>2</v>
+      </c>
+      <c r="K123" s="267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="C119" s="213"/>
-    </row>
-    <row r="120" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="149" t="s">
+      <c r="C125" s="182"/>
+    </row>
+    <row r="126" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C126" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="2">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="258">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D127" s="264">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="2">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
         <v>2</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D128" s="264">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B123" s="2">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
         <v>3</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D129" s="264">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="2">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
         <v>4</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D130" s="264">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="2">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="259">
         <v>5</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D131" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="2">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
         <v>6</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D132" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="2">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
         <v>7</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D133" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="2">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
         <v>8</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D134" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B129" s="2">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="262">
         <v>9</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D135" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B130" s="2">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
         <v>10</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D136" s="265">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B132" s="233" t="s">
+    <row r="137" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="234"/>
-    </row>
-    <row r="133" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="150" t="s">
+      <c r="C138" s="184"/>
+    </row>
+    <row r="139" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="C133" s="31" t="s">
+      <c r="C139" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="2">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="264">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135" s="2">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="265">
         <v>2</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="136" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B137" s="230" t="s">
+    <row r="142" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="C137" s="231"/>
-      <c r="D137" s="231"/>
-      <c r="E137" s="232"/>
-    </row>
-    <row r="138" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="151" t="s">
+      <c r="C143" s="186"/>
+      <c r="D143" s="186"/>
+      <c r="E143" s="187"/>
+    </row>
+    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="C138" s="93" t="s">
+      <c r="C144" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D138" s="93" t="s">
+      <c r="D144" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E144" s="29" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="2">
+    <row r="145" spans="2:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
         <v>1</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D139" s="152" t="s">
+      <c r="D145" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="E139" s="152"/>
-      <c r="F139" s="152" t="s">
+      <c r="E145" s="152"/>
+      <c r="F145" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="G139" s="152" t="s">
+      <c r="G145" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="2">
+    <row r="146" spans="2:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
         <v>2</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="152" t="s">
+      <c r="D146" s="152" t="s">
         <v>185</v>
       </c>
-      <c r="E140" s="152"/>
-      <c r="F140" s="152" t="s">
+      <c r="E146" s="152"/>
+      <c r="F146" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="G140" s="152" t="s">
+      <c r="G146" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B141" s="2">
+    <row r="147" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
         <v>3</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D141" s="152" t="s">
+      <c r="D147" s="152" t="s">
         <v>186</v>
       </c>
-      <c r="E141" s="152"/>
-      <c r="F141" s="152" t="s">
+      <c r="E147" s="152"/>
+      <c r="F147" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="G141" s="152" t="s">
+      <c r="G147" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B142" s="2">
+    <row r="148" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
         <v>4</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D142" s="152" t="s">
+      <c r="D148" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="152"/>
-      <c r="F142" s="152" t="s">
+      <c r="E148" s="152"/>
+      <c r="F148" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="G142" s="152" t="s">
+      <c r="G148" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B144" s="227" t="s">
+    <row r="149" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="C144" s="228"/>
-      <c r="D144" s="229"/>
-    </row>
-    <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="153" t="s">
+      <c r="C150" s="173"/>
+      <c r="D150" s="174"/>
+    </row>
+    <row r="151" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="99" t="s">
+      <c r="C151" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D151" s="26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B146" s="2">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D146" s="152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B147" s="2">
-        <v>2</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D147" s="152" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B148" s="2">
-        <v>3</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D148" s="152" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="235" t="s">
-        <v>46</v>
-      </c>
-      <c r="C150" s="236"/>
-      <c r="D150" s="237"/>
-    </row>
-    <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="C151" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>1</v>
       </c>
-      <c r="C152" s="2">
-        <v>1</v>
+      <c r="C152" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="D152" s="152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B153" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B153" s="260">
         <v>2</v>
       </c>
-      <c r="C153" s="2">
-        <v>2</v>
+      <c r="C153" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="D153" s="152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B154" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B154" s="263">
         <v>3</v>
       </c>
-      <c r="C154" s="2">
-        <v>3</v>
+      <c r="C154" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="D154" s="152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="166" t="s">
-        <v>49</v>
-      </c>
-      <c r="C156" s="223"/>
-      <c r="D156" s="167"/>
-    </row>
-    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="138" t="s">
-        <v>95</v>
-      </c>
-      <c r="C157" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D157" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="213" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="214"/>
+      <c r="D156" s="215"/>
+    </row>
+    <row r="157" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="C157" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <v>1</v>
       </c>
       <c r="C158" s="2">
         <v>1</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>2</v>
       </c>
       <c r="C159" s="2">
         <v>2</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>3</v>
       </c>
       <c r="C160" s="2">
         <v>3</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>194</v>
+      <c r="D160" s="152" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="224" t="s">
-        <v>52</v>
-      </c>
-      <c r="C162" s="225"/>
-      <c r="D162" s="226"/>
+      <c r="B162" s="203" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="216"/>
+      <c r="D162" s="217"/>
     </row>
     <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="C163" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="D163" s="17" t="s">
-        <v>129</v>
+      <c r="B163" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
@@ -4600,8 +4792,8 @@
       <c r="C164" s="2">
         <v>1</v>
       </c>
-      <c r="D164" s="158" t="s">
-        <v>195</v>
+      <c r="D164" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
@@ -4611,418 +4803,342 @@
       <c r="C165" s="2">
         <v>2</v>
       </c>
-      <c r="D165" s="158" t="s">
-        <v>196</v>
+      <c r="D165" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="2">
+      <c r="B166" s="267">
         <v>3</v>
       </c>
       <c r="C166" s="2">
         <v>3</v>
       </c>
-      <c r="D166" s="158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="2">
-        <v>4</v>
-      </c>
-      <c r="C167" s="2">
-        <v>4</v>
-      </c>
-      <c r="D167" s="158" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B169" s="238" t="s">
-        <v>55</v>
-      </c>
-      <c r="C169" s="239"/>
-      <c r="D169" s="240"/>
-    </row>
-    <row r="170" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="159" t="s">
-        <v>97</v>
-      </c>
-      <c r="C170" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D170" s="14" t="s">
-        <v>131</v>
+      <c r="D166" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="218" t="s">
+        <v>52</v>
+      </c>
+      <c r="C168" s="219"/>
+      <c r="D168" s="220"/>
+    </row>
+    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="156" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="2">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="158" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" s="2">
-        <v>1</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>199</v>
+        <v>2</v>
+      </c>
+      <c r="D171" s="158" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C172" s="2">
-        <v>2</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="D172" s="158" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C173" s="2">
-        <v>3</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="2">
         <v>4</v>
       </c>
-      <c r="C174" s="2">
-        <v>4</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
+      <c r="D173" s="158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B175" s="2">
-        <v>5</v>
-      </c>
-      <c r="C175" s="2">
-        <v>5</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="2">
-        <v>6</v>
-      </c>
-      <c r="C176" s="2">
-        <v>6</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>204</v>
+      <c r="B175" s="221" t="s">
+        <v>55</v>
+      </c>
+      <c r="C175" s="222"/>
+      <c r="D175" s="223"/>
+    </row>
+    <row r="176" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" s="118" t="s">
+        <v>130</v>
+      </c>
+      <c r="D176" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C177" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="2">
+        <v>2</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B179" s="249" t="s">
-        <v>58</v>
-      </c>
-      <c r="C179" s="250"/>
-      <c r="D179" s="251"/>
-    </row>
-    <row r="180" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="252" t="s">
-        <v>98</v>
-      </c>
-      <c r="C180" s="124" t="s">
-        <v>132</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>133</v>
+      <c r="B179" s="2">
+        <v>3</v>
+      </c>
+      <c r="C179" s="2">
+        <v>3</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="2">
+        <v>4</v>
+      </c>
+      <c r="C180" s="2">
+        <v>4</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
-        <v>1</v>
-      </c>
-      <c r="C181" s="152" t="s">
-        <v>272</v>
-      </c>
-      <c r="D181" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C181" s="2">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
-        <v>2</v>
-      </c>
-      <c r="C182" s="152" t="s">
-        <v>273</v>
-      </c>
-      <c r="D182" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C182" s="2">
+        <v>6</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
+        <v>7</v>
+      </c>
+      <c r="C183" s="2">
+        <v>7</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="C185" s="170"/>
+      <c r="D185" s="171"/>
+    </row>
+    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="162" t="s">
+        <v>98</v>
+      </c>
+      <c r="C186" s="124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="2">
+        <v>1</v>
+      </c>
+      <c r="C187" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B188" s="2">
+        <v>2</v>
+      </c>
+      <c r="C188" s="152" t="s">
+        <v>273</v>
+      </c>
+      <c r="D188" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
         <v>3</v>
       </c>
-      <c r="C183" s="152" t="s">
+      <c r="C189" s="152" t="s">
         <v>274</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D189" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
         <v>4</v>
       </c>
-      <c r="C184" s="152" t="s">
+      <c r="C190" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D190" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
+    <row r="191" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B191" s="2">
         <v>5</v>
       </c>
-      <c r="C185" s="152" t="s">
+      <c r="C191" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D191" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B187" s="245" t="s">
+    <row r="192" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="C187" s="246"/>
-      <c r="D187" s="247"/>
-    </row>
-    <row r="188" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="248" t="s">
+      <c r="C193" s="164"/>
+      <c r="D193" s="165"/>
+    </row>
+    <row r="194" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C188" s="130" t="s">
+      <c r="C194" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="D188" s="8" t="s">
+      <c r="D194" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
+    <row r="195" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B195" s="2">
         <v>1</v>
       </c>
-      <c r="C189" s="152" t="s">
+      <c r="C195" s="152" t="s">
         <v>206</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D195" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
+    <row r="196" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B196" s="2">
         <v>2</v>
       </c>
-      <c r="C190" s="152" t="s">
+      <c r="C196" s="152" t="s">
         <v>207</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D196" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="2">
         <v>3</v>
       </c>
-      <c r="C191" s="152" t="s">
+      <c r="C197" s="152" t="s">
         <v>208</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D197" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="2">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="2">
         <v>4</v>
       </c>
-      <c r="C192" s="152" t="s">
+      <c r="C198" s="152" t="s">
         <v>209</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D198" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="2">
         <v>5</v>
       </c>
-      <c r="C193" s="152" t="s">
+      <c r="C199" s="152" t="s">
         <v>210</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D199" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="241" t="s">
-        <v>66</v>
-      </c>
-      <c r="C195" s="242"/>
-      <c r="D195" s="242"/>
-      <c r="E195" s="242"/>
-      <c r="F195" s="242"/>
-      <c r="G195" s="242"/>
-      <c r="H195" s="243"/>
-    </row>
-    <row r="196" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="C196" s="136" t="s">
-        <v>136</v>
-      </c>
-      <c r="D196" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="E196" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="F196" s="136" t="s">
-        <v>139</v>
-      </c>
-      <c r="G196" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="H196" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I196" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="K196" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B197" s="2">
-        <v>1</v>
-      </c>
-      <c r="C197" s="145">
-        <v>44060</v>
-      </c>
-      <c r="D197" s="147">
-        <v>44060.395833333336</v>
-      </c>
-      <c r="E197" s="147">
-        <v>44062.583333333336</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H197" s="152" t="s">
-        <v>406</v>
-      </c>
-      <c r="I197" s="2">
-        <v>1</v>
-      </c>
-      <c r="J197" s="2">
-        <v>3</v>
-      </c>
-      <c r="K197" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="2">
-        <v>2</v>
-      </c>
-      <c r="C198" s="145">
-        <v>44269</v>
-      </c>
-      <c r="D198" s="147">
-        <v>44061.395833333336</v>
-      </c>
-      <c r="E198" s="147">
-        <v>44061.395833333336</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H198" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="I198" s="2">
-        <v>2</v>
-      </c>
-      <c r="J198" s="2">
-        <v>2</v>
-      </c>
-      <c r="K198" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C199" s="145"/>
-      <c r="D199" s="147"/>
-      <c r="E199" s="147"/>
-      <c r="H199" s="152"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C200" s="145"/>
-      <c r="D200" s="147"/>
-      <c r="E200" s="147"/>
-      <c r="H200" s="152"/>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="145"/>
+      <c r="D201" s="147"/>
+      <c r="E201" s="147"/>
+      <c r="H201" s="152"/>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C202" s="145"/>
+      <c r="D202" s="147"/>
+      <c r="E202" s="147"/>
+      <c r="H202" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="A26:A31"/>
     <mergeCell ref="B80:G80"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B97:C97"/>
@@ -5034,6 +5150,29 @@
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B120:H120"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B175:D175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
